--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>930572.1324097274</v>
+        <v>944163.5815523815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453906</v>
+        <v>5435918.088148479</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.152668069</v>
+        <v>3904565.274227927</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7697629.961916045</v>
+        <v>8158392.103790279</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>90.98315041848379</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9202602248441235</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>132.9957010382505</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -896,7 +898,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -905,16 +907,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>43.70089437463159</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>306.8301392002974</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>271.0640515220193</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1142,7 +1144,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>91.71522616541971</v>
       </c>
       <c r="X8" t="n">
-        <v>137.5420250224709</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>271.0640515220193</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>51.06651603299817</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>306.8301392002974</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.7165542762732</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>76.43104772188502</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>8.924297638202891</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>306.8301392002974</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>81.56312795822599</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1825,13 +1827,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>314.3141139099612</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>101.6816128081187</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2062,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>413.7369107533264</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>234.7601499342223</v>
       </c>
       <c r="Y22" t="n">
-        <v>172.7341528828694</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>403.8845522234252</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>91.20538803504584</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2485,7 +2487,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -2494,7 +2496,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>250.9082315885304</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>179.9462302981024</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>275.5120998317608</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2843,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.6675852602903</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -2965,10 +2967,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>65.31383608752344</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>65.31383608752344</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>112.3157924738354</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>20.68378134312426</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>80.36465172696911</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>32.84914824329884</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>297.0182667594507</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.98792554467335</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>186.6570442800984</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>10.67714500126764</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3980,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3989,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>8.924297638202891</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>98.84685931863281</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>92.8074432052892</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2117.27467387779</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C2" t="n">
-        <v>1707.15008319106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D2" t="n">
-        <v>1302.686153284121</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E2" t="n">
-        <v>888.3459378010175</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>467.315525754705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>682.2654757435087</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>1394.856875555747</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M2" t="n">
-        <v>1394.856875555747</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1394.856875555747</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.487731972852</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2567.644429892003</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>1996.35210934022</v>
       </c>
       <c r="V2" t="n">
-        <v>2929.36208237686</v>
+        <v>1646.5145546767</v>
       </c>
       <c r="W2" t="n">
-        <v>2929.36208237686</v>
+        <v>1262.754253811869</v>
       </c>
       <c r="X2" t="n">
-        <v>2928.432526594189</v>
+        <v>862.1108559808214</v>
       </c>
       <c r="Y2" t="n">
-        <v>2527.495853542279</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>251.4000992101705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>707.2063554754692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>707.2063554754692</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M3" t="n">
-        <v>1193.526080325524</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N3" t="n">
-        <v>1193.526080325524</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O3" t="n">
-        <v>1193.526080325524</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P3" t="n">
-        <v>1755.231972814054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.926333605366</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>192.926333605366</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>192.926333605366</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>58.5872416475372</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>58.5872416475372</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5872416475372</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1401.594370148297</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1162.045631125</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>879.2474836711237</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>605.3617386106457</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>605.3617386106457</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>605.3617386106457</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6260399994104</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.442201959995</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.442201959995</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D5" t="n">
-        <v>827.9782720530554</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E5" t="n">
-        <v>413.6380565699521</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F5" t="n">
-        <v>413.6380565699521</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4957390198192</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J5" t="n">
-        <v>312.7727131152915</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K5" t="n">
-        <v>850.932214224331</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L5" t="n">
-        <v>1394.856875555747</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M5" t="n">
-        <v>1394.856875555747</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N5" t="n">
-        <v>1394.856875555747</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O5" t="n">
-        <v>2038.487731972852</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="P5" t="n">
-        <v>2567.644429892003</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T5" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U5" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V5" t="n">
-        <v>2444.243452507442</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="W5" t="n">
-        <v>2444.243452507442</v>
+        <v>3748.926052554716</v>
       </c>
       <c r="X5" t="n">
-        <v>2043.600054676394</v>
+        <v>3348.282654723669</v>
       </c>
       <c r="Y5" t="n">
-        <v>1642.663381624484</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J6" t="n">
-        <v>251.4000992101705</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K6" t="n">
-        <v>251.4000992101705</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4000992101705</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="M6" t="n">
-        <v>976.4172145984433</v>
+        <v>862.0033225378832</v>
       </c>
       <c r="N6" t="n">
-        <v>1701.434329986716</v>
+        <v>862.0033225378832</v>
       </c>
       <c r="O6" t="n">
-        <v>1755.231972814054</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="P6" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S7" t="n">
-        <v>1316.321651823697</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T7" t="n">
-        <v>1076.772912800399</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U7" t="n">
-        <v>793.9747653465236</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V7" t="n">
-        <v>520.0890202860455</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W7" t="n">
-        <v>246.2869480415816</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X7" t="n">
-        <v>246.2869480415816</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.2869480415816</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1782.596024514405</v>
+        <v>2139.86454195206</v>
       </c>
       <c r="C8" t="n">
-        <v>1372.471433827675</v>
+        <v>1729.739951265331</v>
       </c>
       <c r="D8" t="n">
-        <v>968.0075039207352</v>
+        <v>1325.276021358391</v>
       </c>
       <c r="E8" t="n">
-        <v>553.6672884376319</v>
+        <v>910.9358058752877</v>
       </c>
       <c r="F8" t="n">
-        <v>553.6672884376319</v>
+        <v>489.9053938289752</v>
       </c>
       <c r="G8" t="n">
-        <v>144.9390043304641</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K8" t="n">
-        <v>596.7467427565767</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1403494936445</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M8" t="n">
-        <v>1520.157464881917</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N8" t="n">
-        <v>2245.17458027019</v>
+        <v>2845.511286064549</v>
       </c>
       <c r="O8" t="n">
-        <v>2888.805436687295</v>
+        <v>3489.142142481654</v>
       </c>
       <c r="P8" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U8" t="n">
-        <v>2672.30159063637</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V8" t="n">
-        <v>2322.464035972851</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="W8" t="n">
-        <v>2322.464035972851</v>
+        <v>3351.665792499507</v>
       </c>
       <c r="X8" t="n">
-        <v>2183.532697566315</v>
+        <v>2951.02239466846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1782.596024514405</v>
+        <v>2550.08572161655</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L9" t="n">
-        <v>655.0422067214914</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="M9" t="n">
-        <v>1380.059322109764</v>
+        <v>924.154190416374</v>
       </c>
       <c r="N9" t="n">
-        <v>2105.076437498037</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U10" t="n">
-        <v>793.9747653465236</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V10" t="n">
-        <v>520.0890202860455</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W10" t="n">
-        <v>246.2869480415816</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X10" t="n">
-        <v>246.2869480415816</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.2869480415816</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2161.65334345333</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C11" t="n">
-        <v>1751.528752766601</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D11" t="n">
-        <v>1699.94641333933</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E11" t="n">
-        <v>1285.606197856226</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F11" t="n">
-        <v>864.5757858099139</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G11" t="n">
-        <v>455.8475017027461</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H11" t="n">
-        <v>144.9390043304641</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K11" t="n">
-        <v>596.7467427565767</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L11" t="n">
-        <v>1031.557412652331</v>
+        <v>994.8506716388846</v>
       </c>
       <c r="M11" t="n">
-        <v>1031.557412652331</v>
+        <v>1771.169262630639</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.574528040604</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O11" t="n">
-        <v>2400.205384457709</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T11" t="n">
-        <v>2571.87452311782</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U11" t="n">
-        <v>2571.87452311782</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V11" t="n">
-        <v>2571.87452311782</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="W11" t="n">
-        <v>2571.87452311782</v>
+        <v>3748.926052554716</v>
       </c>
       <c r="X11" t="n">
-        <v>2571.87452311782</v>
+        <v>3348.282654723669</v>
       </c>
       <c r="Y11" t="n">
-        <v>2571.87452311782</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="M12" t="n">
-        <v>783.60435703581</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="N12" t="n">
-        <v>1401.119346952143</v>
+        <v>1410.641458098724</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>1536.400893721147</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.921091948674</v>
+        <v>158.380188228762</v>
       </c>
       <c r="C13" t="n">
-        <v>976.8277195103904</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D13" t="n">
-        <v>817.3330748333003</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E13" t="n">
-        <v>656.4222597016197</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F13" t="n">
-        <v>491.791133812211</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G13" t="n">
-        <v>324.5407427377544</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9332875432111</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T13" t="n">
-        <v>1316.321651823697</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U13" t="n">
-        <v>1316.321651823697</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V13" t="n">
-        <v>1316.321651823697</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="W13" t="n">
-        <v>1316.321651823697</v>
+        <v>809.1594553743582</v>
       </c>
       <c r="X13" t="n">
-        <v>1316.321651823697</v>
+        <v>570.8155932340417</v>
       </c>
       <c r="Y13" t="n">
-        <v>1316.321651823697</v>
+        <v>346.0798946228064</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1717.560831829413</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C14" t="n">
-        <v>1307.436241142683</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D14" t="n">
-        <v>902.9723112357437</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E14" t="n">
-        <v>488.6320957526405</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F14" t="n">
-        <v>67.601683706328</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K14" t="n">
-        <v>596.7467427565767</v>
+        <v>322.8159175162116</v>
       </c>
       <c r="L14" t="n">
-        <v>1309.338142568815</v>
+        <v>1035.40731732845</v>
       </c>
       <c r="M14" t="n">
-        <v>1309.338142568815</v>
+        <v>1811.725908320203</v>
       </c>
       <c r="N14" t="n">
-        <v>1435.413521245312</v>
+        <v>2564.906924958821</v>
       </c>
       <c r="O14" t="n">
-        <v>2079.044377662417</v>
+        <v>3208.537781375926</v>
       </c>
       <c r="P14" t="n">
-        <v>2608.201075581568</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="W14" t="n">
-        <v>2929.36208237686</v>
+        <v>3748.926052554716</v>
       </c>
       <c r="X14" t="n">
-        <v>2528.718684545813</v>
+        <v>3348.282654723669</v>
       </c>
       <c r="Y14" t="n">
-        <v>2127.782011493903</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>742.2652816410956</v>
       </c>
       <c r="M15" t="n">
-        <v>783.60435703581</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="N15" t="n">
-        <v>1508.621472424083</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O15" t="n">
-        <v>1543.370545009507</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1528.189008405056</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1288.640269381758</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>1005.842121927882</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>731.9563768674037</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>731.9563768674037</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>493.6125147270871</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>268.8768161158518</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2359.298219196301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.173628509571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1544.709698602632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1130.369483119528</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
         <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>404.1521950629049</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I17" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>3954.85977060858</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3571.099469743748</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.456071912701</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2769.519398860791</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>3276.783860599928</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>4119.760941294495</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N18" t="n">
-        <v>4119.760941294495</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>4119.760941294495</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>367.0457699350868</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>195.9523974968033</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>195.9523974968033</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>195.9523974968033</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>195.9523974968033</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V19" t="n">
-        <v>826.4099627738212</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W19" t="n">
-        <v>547.3402982826956</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="X19" t="n">
-        <v>308.996436142379</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>554.7454763291312</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5780,22 +5782,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4439.978400477999</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>3458.672769375206</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>4332.330861486824</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>691.2013863508041</v>
+        <v>3303.879360348573</v>
       </c>
       <c r="C22" t="n">
-        <v>520.1080139125206</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D22" t="n">
-        <v>520.1080139125206</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T22" t="n">
-        <v>1383.093855288175</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U22" t="n">
-        <v>1383.093855288175</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.093855288175</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="W22" t="n">
-        <v>1104.024190797049</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="X22" t="n">
-        <v>865.6803286567329</v>
+        <v>3716.314765353853</v>
       </c>
       <c r="Y22" t="n">
-        <v>691.2013863508041</v>
+        <v>3491.579066742617</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>1827.394211974981</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.930282068041</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1008.590066584938</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>587.5596545386256</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
         <v>179.5954603735497</v>
@@ -5987,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3886.395339883734</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C25" t="n">
-        <v>3886.395339883734</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D25" t="n">
-        <v>3726.900695206644</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E25" t="n">
-        <v>3565.989880074963</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4139.837998053967</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V25" t="n">
-        <v>3886.395339883734</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W25" t="n">
-        <v>3886.395339883734</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="X25" t="n">
-        <v>3886.395339883734</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="Y25" t="n">
-        <v>3886.395339883734</v>
+        <v>1158.35815667694</v>
       </c>
     </row>
     <row r="26">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C27" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D27" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E27" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F27" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G27" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H27" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I27" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S27" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T27" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U27" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V27" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W27" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X27" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y27" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3788.915946046752</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3617.822573608469</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3458.327928931379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>4383.115220040014</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>4201.351351052032</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>3976.615652440797</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>549.0499539559215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1422.708046067539</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
-        <v>1422.708046067539</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3464.667504874155</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>3464.667504874155</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>3464.667504874155</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>3464.667504874155</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>3300.036378984746</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V31" t="n">
-        <v>4388.299139470661</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W31" t="n">
-        <v>4109.229474979536</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X31" t="n">
-        <v>3870.885612839219</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y31" t="n">
-        <v>3646.149914227984</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C33" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D33" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E33" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S33" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T33" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U33" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V33" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W33" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X33" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="34">
@@ -6883,22 +6885,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X34" t="n">
-        <v>1595.012952997039</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y34" t="n">
         <v>1370.277254385804</v>
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
         <v>404.1521950629048</v>
@@ -6950,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D36" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E36" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H36" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S36" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T36" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U36" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V36" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W36" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4164.476761201259</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="C37" t="n">
-        <v>4051.026465773143</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="D37" t="n">
-        <v>3891.531821096053</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964372</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F37" t="n">
         <v>3565.989880074963</v>
@@ -7117,28 +7119,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>4641.292176103741</v>
       </c>
       <c r="S37" t="n">
-        <v>4576.912166206539</v>
+        <v>4641.292176103741</v>
       </c>
       <c r="T37" t="n">
-        <v>4576.912166206539</v>
+        <v>4401.743437080443</v>
       </c>
       <c r="U37" t="n">
-        <v>4576.912166206539</v>
+        <v>4118.945289626568</v>
       </c>
       <c r="V37" t="n">
-        <v>4576.912166206539</v>
+        <v>3845.059544566089</v>
       </c>
       <c r="W37" t="n">
-        <v>4576.912166206539</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="X37" t="n">
-        <v>4576.912166206539</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="Y37" t="n">
-        <v>4352.176467595304</v>
+        <v>3565.989880074963</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
         <v>1233.910891216385</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7263,7 +7265,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>607.6240057411241</v>
+        <v>458.4288430821008</v>
       </c>
       <c r="C40" t="n">
-        <v>607.6240057411241</v>
+        <v>287.3354706438173</v>
       </c>
       <c r="D40" t="n">
-        <v>607.6240057411241</v>
+        <v>287.3354706438173</v>
       </c>
       <c r="E40" t="n">
-        <v>607.6240057411241</v>
+        <v>126.4246555121368</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>126.4246555121368</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>126.4246555121368</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>126.4246555121368</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>1111.429368843485</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W40" t="n">
-        <v>832.3597043523594</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X40" t="n">
-        <v>832.3597043523594</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.6240057411241</v>
+        <v>646.1285494761452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>479.6176536938497</v>
+        <v>1721.114813068183</v>
       </c>
       <c r="C41" t="n">
-        <v>479.6176536938497</v>
+        <v>1310.990222381453</v>
       </c>
       <c r="D41" t="n">
-        <v>479.6176536938497</v>
+        <v>906.5262924745139</v>
       </c>
       <c r="E41" t="n">
-        <v>479.6176536938497</v>
+        <v>906.5262924745139</v>
       </c>
       <c r="F41" t="n">
-        <v>58.5872416475372</v>
+        <v>485.4958804282014</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L41" t="n">
-        <v>1309.338142568815</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M41" t="n">
-        <v>2034.355257957088</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N41" t="n">
-        <v>2285.731225959755</v>
+        <v>2845.511286064549</v>
       </c>
       <c r="O41" t="n">
-        <v>2929.36208237686</v>
+        <v>3489.142142481654</v>
       </c>
       <c r="P41" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S41" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T41" t="n">
-        <v>2571.87452311782</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="U41" t="n">
-        <v>2314.81403137733</v>
+        <v>3666.513919143981</v>
       </c>
       <c r="V41" t="n">
-        <v>1964.976476713811</v>
+        <v>3316.676364480462</v>
       </c>
       <c r="W41" t="n">
-        <v>1581.216175848979</v>
+        <v>2932.91606361563</v>
       </c>
       <c r="X41" t="n">
-        <v>1180.572778017932</v>
+        <v>2532.272665784583</v>
       </c>
       <c r="Y41" t="n">
-        <v>779.6361049660221</v>
+        <v>2131.335992732673</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="M42" t="n">
-        <v>676.1022315638701</v>
+        <v>862.0033225378832</v>
       </c>
       <c r="N42" t="n">
-        <v>1401.119346952143</v>
+        <v>862.0033225378832</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>881.9675908584566</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C43" t="n">
-        <v>710.8742184201731</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D43" t="n">
-        <v>551.379573743083</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E43" t="n">
-        <v>390.4687586114026</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F43" t="n">
-        <v>225.8376327219938</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="T43" t="n">
-        <v>1587.986138268387</v>
+        <v>1285.754548994759</v>
       </c>
       <c r="U43" t="n">
-        <v>1305.187990814512</v>
+        <v>1097.212080024963</v>
       </c>
       <c r="V43" t="n">
-        <v>1305.187990814512</v>
+        <v>823.3263349644849</v>
       </c>
       <c r="W43" t="n">
-        <v>1305.187990814512</v>
+        <v>544.2566704733592</v>
       </c>
       <c r="X43" t="n">
-        <v>1294.402995863736</v>
+        <v>305.9128083330427</v>
       </c>
       <c r="Y43" t="n">
-        <v>1069.667297252501</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1717.560831829413</v>
+        <v>2132.660872100329</v>
       </c>
       <c r="C44" t="n">
-        <v>1307.436241142683</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="D44" t="n">
-        <v>902.9723112357437</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E44" t="n">
-        <v>488.6320957526405</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F44" t="n">
-        <v>67.601683706328</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K44" t="n">
-        <v>850.932214224331</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="L44" t="n">
-        <v>1563.523614036569</v>
+        <v>1047.9539810018</v>
       </c>
       <c r="M44" t="n">
-        <v>1924.013573474898</v>
+        <v>1771.169262630639</v>
       </c>
       <c r="N44" t="n">
-        <v>1924.013573474898</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O44" t="n">
-        <v>2567.644429892003</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P44" t="n">
-        <v>2567.644429892003</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V44" t="n">
-        <v>2929.36208237686</v>
+        <v>3344.462122647777</v>
       </c>
       <c r="W44" t="n">
-        <v>2929.36208237686</v>
+        <v>3344.462122647777</v>
       </c>
       <c r="X44" t="n">
-        <v>2528.718684545813</v>
+        <v>2943.818724816729</v>
       </c>
       <c r="Y44" t="n">
-        <v>2127.782011493903</v>
+        <v>2542.882051764819</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L45" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="M45" t="n">
-        <v>783.60435703581</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="N45" t="n">
-        <v>1401.119346952143</v>
+        <v>954.8352018334252</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.076437498037</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1070.572611636945</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C46" t="n">
-        <v>976.8277195103904</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D46" t="n">
-        <v>817.3330748333003</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E46" t="n">
-        <v>656.4222597016197</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F46" t="n">
-        <v>491.791133812211</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G46" t="n">
-        <v>324.5407427377544</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U46" t="n">
-        <v>1587.986138268387</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V46" t="n">
-        <v>1587.986138268387</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W46" t="n">
-        <v>1308.916473777262</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X46" t="n">
-        <v>1070.572611636945</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y46" t="n">
-        <v>1070.572611636945</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>462.3614024289921</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
@@ -7991,10 +7993,10 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>228.7885022587807</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8055,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>548.7963290415028</v>
+        <v>558.5343765177352</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8219,19 +8221,19 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>644.9042478925577</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>680.5885068018456</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8292,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>789.9048043326325</v>
+        <v>385.8672701533437</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>112.0925323609472</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8456,19 +8458,19 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>295.8829806255396</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>837.6240932108715</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8532,19 +8534,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>198.1839266478749</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8693,13 +8695,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>534.6880949272427</v>
+        <v>474.7925301921758</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8708,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>676.9459084607529</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>184.781211951943</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,16 +8929,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>333.2159935059486</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>220.261158106616</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -9009,19 +9011,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>92.8515523186104</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9249,16 +9251,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>574.4763360814417</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>602.1626079691117</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9404,7 +9406,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M20" t="n">
         <v>877.4504173780091</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9966,7 +9968,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10191,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
-        <v>395.2908101815614</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>557.7944283533856</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
@@ -10674,7 +10676,7 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>557.7944283533855</v>
+        <v>557.7944283533856</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
@@ -10911,10 +10913,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11066,22 +11068,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>346.8274099512328</v>
+        <v>580.8710917282914</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,16 +11147,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>681.3167988054204</v>
+        <v>846.2776300172818</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,22 +11299,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>457.4214966169739</v>
+        <v>823.810710950822</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11382,22 +11384,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>676.9459084607529</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,16 +22552,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22601,19 +22603,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>163.5067364046012</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>395.7167036278929</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.30600594211322</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,22 +22755,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>360.9401068914645</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22841,10 +22843,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>73.09255865588568</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -23002,10 +23004,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>5.214916324195087</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300453</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23030,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>288.2074716907634</v>
       </c>
       <c r="X8" t="n">
-        <v>259.0949388302661</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23239,10 +23241,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>5.214916324195087</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300453</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>349.3527745748719</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -23318,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>73.09255865588568</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.10615505383078</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.95139099201563</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.7167036278932</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>73.09255865588568</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>102.9647224806628</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5059940158881</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23902,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>63.89627435559331</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884348</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,13 +24022,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24142,10 +24144,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.200273584691132</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.75418874225349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7564490426709085</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>94.6173212950581</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>20.23865602134282</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24430,7 +24432,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24652,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>56.01419322081099</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.15512406981361</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24895,16 +24897,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>157.1745055375995</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>157.1745055375995</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>57.0666462400653</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>63.73620979823008</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>82.62016290354553</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>82.33343719341826</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.1007011083938</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>397.6530757214227</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>93.31312169923871</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.2832785176458</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.7167036278932</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>247.4923197982513</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -26023,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>76.57499550861145</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>579117.5446306131</v>
+        <v>494673.4368838732</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>579117.5446306131</v>
+        <v>692514.4987198825</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>579117.5446306129</v>
+        <v>692514.4987198825</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>579117.5446306131</v>
+        <v>692514.4987198826</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>579117.5446306132</v>
+        <v>692514.4987198825</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753086.5355912438</v>
+        <v>753086.5355912436</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753086.5355912434</v>
+        <v>753086.5355912435</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753086.5355912438</v>
+        <v>753086.5355912435</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753086.5355912435</v>
+        <v>753086.5355912436</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753086.5355912435</v>
+        <v>753086.5355912438</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>579117.5446306129</v>
+        <v>692514.4987198825</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>579117.5446306131</v>
+        <v>692514.4987198826</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200463.7654490586</v>
+        <v>171233.1127674947</v>
       </c>
       <c r="C2" t="n">
-        <v>200463.7654490585</v>
+        <v>239716.5572491902</v>
       </c>
       <c r="D2" t="n">
-        <v>200463.7654490585</v>
+        <v>239716.5572491902</v>
       </c>
       <c r="E2" t="n">
-        <v>200463.7654490585</v>
+        <v>239716.5572491901</v>
       </c>
       <c r="F2" t="n">
-        <v>200463.7654490586</v>
+        <v>239716.55724919</v>
       </c>
       <c r="G2" t="n">
         <v>260683.8007815845</v>
@@ -26344,16 +26346,16 @@
         <v>260683.8007815845</v>
       </c>
       <c r="M2" t="n">
-        <v>260683.8007815844</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="N2" t="n">
-        <v>260683.8007815843</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="O2" t="n">
-        <v>200463.7654490585</v>
+        <v>239716.5572491901</v>
       </c>
       <c r="P2" t="n">
-        <v>200463.7654490585</v>
+        <v>239716.5572491902</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>159160.8707514664</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>41340.88454290959</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126792.4227070339</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.3187768863874</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="C4" t="n">
-        <v>533.3187768863875</v>
+        <v>666.8180517907564</v>
       </c>
       <c r="D4" t="n">
-        <v>533.3187768863874</v>
+        <v>666.8180517907563</v>
       </c>
       <c r="E4" t="n">
-        <v>533.3187768863875</v>
+        <v>666.8180517907563</v>
       </c>
       <c r="F4" t="n">
-        <v>533.3187768863874</v>
+        <v>666.8180517907564</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="H4" t="n">
         <v>738.1279301446466</v>
@@ -26442,7 +26444,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
         <v>738.1279301446466</v>
@@ -26454,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>533.3187768863874</v>
+        <v>666.8180517907563</v>
       </c>
       <c r="P4" t="n">
-        <v>533.3187768863874</v>
+        <v>666.8180517907562</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123647.6092630512</v>
+        <v>-69525.36713656032</v>
       </c>
       <c r="C6" t="n">
-        <v>121776.5430200438</v>
+        <v>-15433.33494264059</v>
       </c>
       <c r="D6" t="n">
-        <v>121776.5430200438</v>
+        <v>143727.5358088258</v>
       </c>
       <c r="E6" t="n">
-        <v>155404.1430200438</v>
+        <v>177355.1358088258</v>
       </c>
       <c r="F6" t="n">
-        <v>155404.143020044</v>
+        <v>177355.1358088256</v>
       </c>
       <c r="G6" t="n">
-        <v>70345.27817445261</v>
+        <v>147739.5780636569</v>
       </c>
       <c r="H6" t="n">
+        <v>189080.4626065665</v>
+      </c>
+      <c r="I6" t="n">
+        <v>189080.4626065665</v>
+      </c>
+      <c r="J6" t="n">
+        <v>52485.66180067151</v>
+      </c>
+      <c r="K6" t="n">
+        <v>62288.0398995327</v>
+      </c>
+      <c r="L6" t="n">
         <v>189080.4626065666</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>189080.4626065666</v>
       </c>
-      <c r="J6" t="n">
-        <v>-2532.040563786286</v>
-      </c>
-      <c r="K6" t="n">
-        <v>189080.4626065665</v>
-      </c>
-      <c r="L6" t="n">
-        <v>189080.4626065665</v>
-      </c>
-      <c r="M6" t="n">
-        <v>189080.4626065664</v>
-      </c>
       <c r="N6" t="n">
-        <v>189080.4626065664</v>
+        <v>189080.4626065666</v>
       </c>
       <c r="O6" t="n">
-        <v>155404.1430200438</v>
+        <v>177355.1358088257</v>
       </c>
       <c r="P6" t="n">
-        <v>155404.1430200439</v>
+        <v>177355.1358088258</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>373.2250127557749</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>491.2320453030854</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34941,19 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>549.4188498297128</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>587.3987311760625</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>732.340520594215</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>54.34105336094724</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,19 +35178,19 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>200.3975825626947</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>744.7118024542522</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>142.0694028370258</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35413,13 +35415,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>439.2026968643979</v>
+        <v>379.307132129331</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35428,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>623.7525150670029</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>127.029732951943</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>244.0796038327315</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>127.3488673499967</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>35.10007331861041</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35969,16 +35971,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>516.9120523430242</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>547.902972966308</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M20" t="n">
         <v>784.1601929209636</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36686,7 +36688,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0311751787577</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O32" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
         <v>534.50171506985</v>
@@ -37157,7 +37159,7 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
@@ -37394,7 +37396,7 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>504.6010349596355</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
@@ -37631,10 +37633,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37786,22 +37788,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>253.9151191946135</v>
+        <v>487.9588009716721</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>623.7525150670029</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>364.1312721599284</v>
+        <v>730.5204864937765</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>623.7525150670029</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>944163.5815523815</v>
+        <v>941566.7067288329</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5435918.088148479</v>
+        <v>5562152.400446149</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3904565.274227927</v>
+        <v>4028287.523710872</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8158392.103790279</v>
+        <v>8138703.551720298</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>252.6871036901637</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>90.98315041848379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>134.1885291524022</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -901,7 +901,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -916,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>42.37707567864758</v>
       </c>
       <c r="W5" t="n">
-        <v>306.8301392002974</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>85.25432609134887</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>306.5779496645127</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>91.71522616541971</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1350,16 +1350,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>262.253757051989</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>225.4378887117132</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>306.8301392002974</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.43104772188502</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>18.03243964103858</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>306.8301392002974</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>81.56312795822599</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1827,13 +1827,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>101.6816128081187</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>413.7369107533264</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>234.7601499342223</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.20538803504584</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2803,7 +2803,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>314.3141139099612</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2952,7 +2952,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2961,13 +2961,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>38.68515894575005</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.31383608752344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>407.1136161557494</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.31383608752344</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.68378134312426</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>32.84914824329884</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.98792554467335</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>67.2733464173685</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>186.6570442800984</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3991,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>98.84685931863281</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>176.4927516828635</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451.8896763163319</v>
+        <v>2473.99461081741</v>
       </c>
       <c r="C2" t="n">
-        <v>41.76508562960205</v>
+        <v>2063.87002013068</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>1659.406090223741</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>1245.065874740637</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>824.0354626943249</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>415.3071785871571</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2088.254281480102</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U2" t="n">
-        <v>1996.35210934022</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V2" t="n">
-        <v>1646.5145546767</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W2" t="n">
-        <v>1262.754253811869</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="X2" t="n">
-        <v>862.1108559808214</v>
+        <v>3285.15246353381</v>
       </c>
       <c r="Y2" t="n">
-        <v>862.1108559808214</v>
+        <v>2884.2157904819</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959273</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.568412147452</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R3" t="n">
-        <v>2088.254281480102</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>1980.264271594411</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>1820.922407781419</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>1020.300919787893</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1133.924898274182</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>860.0391532137037</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>724.4951843728934</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2537.124802007269</v>
+        <v>2038.847916922893</v>
       </c>
       <c r="C5" t="n">
-        <v>2127.000211320539</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="D5" t="n">
-        <v>1722.5362814136</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E5" t="n">
-        <v>1308.196065930496</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F5" t="n">
-        <v>887.1656538841841</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G5" t="n">
-        <v>478.4373697770162</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H5" t="n">
-        <v>167.5288724047342</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I5" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>335.3625811895617</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>873.5220822986012</v>
+        <v>662.3806637397518</v>
       </c>
       <c r="L5" t="n">
-        <v>1586.113482110839</v>
+        <v>1374.97206355199</v>
       </c>
       <c r="M5" t="n">
-        <v>2362.432073102593</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="N5" t="n">
-        <v>3115.613089741211</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O5" t="n">
-        <v>3697.137833605513</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P5" t="n">
-        <v>3697.137833605513</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q5" t="n">
-        <v>4018.298840400805</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>4058.85548609037</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>4058.85548609037</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U5" t="n">
-        <v>4058.85548609037</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="V5" t="n">
-        <v>4058.85548609037</v>
+        <v>3250.649167470339</v>
       </c>
       <c r="W5" t="n">
-        <v>3748.926052554716</v>
+        <v>3250.649167470339</v>
       </c>
       <c r="X5" t="n">
-        <v>3348.282654723669</v>
+        <v>2850.005769639292</v>
       </c>
       <c r="Y5" t="n">
-        <v>2947.345981671759</v>
+        <v>2449.069096587382</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>536.9833659871061</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L6" t="n">
-        <v>536.9833659871061</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M6" t="n">
-        <v>862.0033225378832</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N6" t="n">
-        <v>862.0033225378832</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O6" t="n">
-        <v>1565.960413083777</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P6" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q6" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>95.25965912701793</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1525.303288018057</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1338.911519897968</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1099.36278087467</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U7" t="n">
-        <v>816.5646334207938</v>
+        <v>1277.450593924497</v>
       </c>
       <c r="V7" t="n">
-        <v>542.6788883603158</v>
+        <v>1003.564848864019</v>
       </c>
       <c r="W7" t="n">
-        <v>263.6092238691901</v>
+        <v>724.4951843728934</v>
       </c>
       <c r="X7" t="n">
-        <v>81.1771097218074</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.1771097218074</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2139.86454195206</v>
+        <v>1605.11568008316</v>
       </c>
       <c r="C8" t="n">
-        <v>1729.739951265331</v>
+        <v>1194.99108939643</v>
       </c>
       <c r="D8" t="n">
-        <v>1325.276021358391</v>
+        <v>885.3163927656093</v>
       </c>
       <c r="E8" t="n">
-        <v>910.9358058752877</v>
+        <v>470.976177282506</v>
       </c>
       <c r="F8" t="n">
-        <v>489.9053938289752</v>
+        <v>470.976177282506</v>
       </c>
       <c r="G8" t="n">
-        <v>81.1771097218074</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H8" t="n">
-        <v>81.1771097218074</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>81.1771097218074</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>619.3366108308469</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L8" t="n">
-        <v>1331.928010643085</v>
+        <v>1040.492788507289</v>
       </c>
       <c r="M8" t="n">
-        <v>2108.246601634839</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N8" t="n">
-        <v>2845.511286064549</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O8" t="n">
-        <v>3489.142142481654</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P8" t="n">
-        <v>4018.298840400805</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q8" t="n">
-        <v>4018.298840400805</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R8" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3923.574410884471</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>3701.36792683133</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U8" t="n">
-        <v>3444.30743509084</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V8" t="n">
-        <v>3444.30743509084</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="W8" t="n">
-        <v>3351.665792499507</v>
+        <v>2816.916930630607</v>
       </c>
       <c r="X8" t="n">
-        <v>2951.02239466846</v>
+        <v>2416.27353279956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2550.08572161655</v>
+        <v>2015.33685974765</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>81.1771097218074</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K9" t="n">
-        <v>81.1771097218074</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L9" t="n">
-        <v>81.1771097218074</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="M9" t="n">
-        <v>924.154190416374</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="N9" t="n">
-        <v>1423.709215026413</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="O9" t="n">
-        <v>2127.666305572307</v>
+        <v>1426.292121601123</v>
       </c>
       <c r="P9" t="n">
-        <v>2127.666305572307</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2127.666305572307</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R9" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>95.25965912701793</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1525.303288018057</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1338.911519897968</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1099.36278087467</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U10" t="n">
-        <v>816.5646334207938</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V10" t="n">
-        <v>542.6788883603158</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W10" t="n">
-        <v>263.6092238691901</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X10" t="n">
-        <v>81.1771097218074</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2537.124802007269</v>
+        <v>2446.470151243218</v>
       </c>
       <c r="C11" t="n">
-        <v>2127.000211320539</v>
+        <v>2036.345560556488</v>
       </c>
       <c r="D11" t="n">
-        <v>1722.5362814136</v>
+        <v>1631.881630649548</v>
       </c>
       <c r="E11" t="n">
-        <v>1308.196065930496</v>
+        <v>1217.541415166445</v>
       </c>
       <c r="F11" t="n">
-        <v>887.1656538841841</v>
+        <v>796.5110031201325</v>
       </c>
       <c r="G11" t="n">
-        <v>478.4373697770162</v>
+        <v>387.7827190129647</v>
       </c>
       <c r="H11" t="n">
-        <v>167.5288724047342</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I11" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>619.3366108308469</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L11" t="n">
-        <v>994.8506716388846</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>1771.169262630639</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>2524.350279269257</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O11" t="n">
-        <v>3167.981135686362</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P11" t="n">
-        <v>3697.137833605513</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q11" t="n">
-        <v>4018.298840400805</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R11" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>4058.85548609037</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U11" t="n">
-        <v>4058.85548609037</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V11" t="n">
-        <v>4058.85548609037</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="W11" t="n">
-        <v>3748.926052554716</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="X11" t="n">
-        <v>3348.282654723669</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="Y11" t="n">
-        <v>2947.345981671759</v>
+        <v>2856.691330907707</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>81.1771097218074</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K12" t="n">
-        <v>536.9833659871061</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L12" t="n">
-        <v>536.9833659871061</v>
+        <v>897.8240483366171</v>
       </c>
       <c r="M12" t="n">
-        <v>536.9833659871061</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="N12" t="n">
-        <v>1410.641458098724</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="O12" t="n">
-        <v>1536.400893721147</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="P12" t="n">
-        <v>2098.106786209677</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q12" t="n">
-        <v>2098.106786209677</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R12" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.380188228762</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>95.25965912701793</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1371.02726731936</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>1088.229119865484</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>1088.229119865484</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>809.1594553743582</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>570.8155932340417</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>346.0798946228064</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2537.124802007269</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C14" t="n">
-        <v>2127.000211320539</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D14" t="n">
-        <v>1722.5362814136</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E14" t="n">
-        <v>1308.196065930496</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F14" t="n">
-        <v>887.1656538841841</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G14" t="n">
-        <v>478.4373697770162</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H14" t="n">
-        <v>167.5288724047342</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>322.8159175162116</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>1035.40731732845</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M14" t="n">
-        <v>1811.725908320203</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N14" t="n">
-        <v>2564.906924958821</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O14" t="n">
-        <v>3208.537781375926</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P14" t="n">
-        <v>3737.694479295078</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q14" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V14" t="n">
-        <v>4058.85548609037</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W14" t="n">
-        <v>3748.926052554716</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X14" t="n">
-        <v>3348.282654723669</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y14" t="n">
-        <v>2947.345981671759</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>81.1771097218074</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K15" t="n">
-        <v>81.1771097218074</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L15" t="n">
-        <v>742.2652816410956</v>
+        <v>896.7025562821959</v>
       </c>
       <c r="M15" t="n">
-        <v>1423.709215026413</v>
+        <v>896.7025562821959</v>
       </c>
       <c r="N15" t="n">
-        <v>1423.709215026413</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.666305572307</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P15" t="n">
-        <v>2127.666305572307</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q15" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>95.25965912701793</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1528.189008405056</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1288.640269381758</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>1005.842121927882</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V16" t="n">
-        <v>731.9563768674037</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W16" t="n">
-        <v>731.9563768674037</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>493.6125147270871</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.8768161158518</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629049</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,10 +5542,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U17" t="n">
         <v>4408.238733368956</v>
@@ -5597,16 +5597,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>2083.796217986828</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>367.0457699350868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>195.9523974968033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>195.9523974968033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>195.9523974968033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>195.9523974968033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>554.7454763291312</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>554.7454763291312</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>554.7454763291312</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2459.725286714852</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2049.600696028122</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1645.136766121183</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1230.796550638079</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
         <v>812.8804791700727</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U20" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2869.946466379341</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5834,16 +5834,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3303.879360348573</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4236.244377387751</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U22" t="n">
-        <v>3953.446229933875</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>3953.446229933875</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>3953.446229933875</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>3716.314765353853</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>3491.579066742617</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6180,19 +6180,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>1383.093855288175</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>1383.093855288175</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>1158.35815667694</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
         <v>404.1521950629048</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C27" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D27" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E27" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H27" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>3458.672769375206</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="N27" t="n">
-        <v>4332.330861486824</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S27" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T27" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U27" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V27" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W27" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X27" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y27" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="28">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1863.671737910768</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>697.2455944695239</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>697.2455944695239</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>537.7509497924339</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H31" t="n">
         <v>209.5897435862967</v>
@@ -6654,19 +6654,19 @@
         <v>1436.250826191383</v>
       </c>
       <c r="U31" t="n">
-        <v>1436.250826191383</v>
+        <v>1397.174908064363</v>
       </c>
       <c r="V31" t="n">
-        <v>1436.250826191383</v>
+        <v>1123.289163003885</v>
       </c>
       <c r="W31" t="n">
-        <v>1436.250826191383</v>
+        <v>1123.289163003885</v>
       </c>
       <c r="X31" t="n">
-        <v>1436.250826191383</v>
+        <v>884.9453008635683</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>884.9453008635683</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6733,19 +6733,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4494.590496051882</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>2615.69568868064</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>3458.672769375206</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>3958.227793985246</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6885,25 +6885,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1436.250826191383</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>1436.250826191383</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>1436.250826191383</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.250826191383</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6952,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -6967,7 +6967,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
         <v>4408.238733368956</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>3458.672769375206</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N36" t="n">
-        <v>3958.227793985246</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4641.292176103741</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4641.292176103741</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4401.743437080443</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4118.945289626568</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>3845.059544566089</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>3565.989880074963</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>3565.989880074963</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7201,10 +7201,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U38" t="n">
         <v>4408.238733368956</v>
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>458.4288430821008</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>287.3354706438173</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>287.3354706438173</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>126.4246555121368</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>126.4246555121368</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>126.4246555121368</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>126.4246555121368</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7365,19 +7365,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1109.208110227697</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1109.208110227697</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>870.8642480873805</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>646.1285494761452</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1721.114813068183</v>
+        <v>2022.28143478352</v>
       </c>
       <c r="C41" t="n">
-        <v>1310.990222381453</v>
+        <v>1612.15684409679</v>
       </c>
       <c r="D41" t="n">
-        <v>906.5262924745139</v>
+        <v>1207.69291418985</v>
       </c>
       <c r="E41" t="n">
-        <v>906.5262924745139</v>
+        <v>793.352698706747</v>
       </c>
       <c r="F41" t="n">
-        <v>485.4958804282014</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G41" t="n">
-        <v>478.4373697770162</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H41" t="n">
-        <v>167.5288724047342</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>335.3625811895617</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>873.5220822986012</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.113482110839</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M41" t="n">
-        <v>2362.432073102593</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N41" t="n">
-        <v>2845.511286064549</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O41" t="n">
-        <v>3489.142142481654</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P41" t="n">
-        <v>4018.298840400805</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q41" t="n">
-        <v>4018.298840400805</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>3923.574410884471</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>3923.574410884471</v>
+        <v>3617.842986195798</v>
       </c>
       <c r="U41" t="n">
-        <v>3666.513919143981</v>
+        <v>3617.842986195798</v>
       </c>
       <c r="V41" t="n">
-        <v>3316.676364480462</v>
+        <v>3617.842986195798</v>
       </c>
       <c r="W41" t="n">
-        <v>2932.91606361563</v>
+        <v>3234.082685330966</v>
       </c>
       <c r="X41" t="n">
-        <v>2532.272665784583</v>
+        <v>2833.439287499919</v>
       </c>
       <c r="Y41" t="n">
-        <v>2131.335992732673</v>
+        <v>2432.502614448009</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>81.1771097218074</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>81.1771097218074</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L42" t="n">
-        <v>81.1771097218074</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="M42" t="n">
-        <v>862.0033225378832</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="N42" t="n">
-        <v>862.0033225378832</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O42" t="n">
-        <v>1565.960413083777</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P42" t="n">
-        <v>2127.666305572307</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q42" t="n">
-        <v>2127.666305572307</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R42" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>95.25965912701793</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>1525.303288018057</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>1525.303288018057</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>1285.754548994759</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>1097.212080024963</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>823.3263349644849</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>544.2566704733592</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>305.9128083330427</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2132.660872100329</v>
+        <v>1723.675065350382</v>
       </c>
       <c r="C44" t="n">
-        <v>1722.5362814136</v>
+        <v>1313.550474663652</v>
       </c>
       <c r="D44" t="n">
-        <v>1722.5362814136</v>
+        <v>909.0865447567129</v>
       </c>
       <c r="E44" t="n">
-        <v>1308.196065930496</v>
+        <v>494.7463292736096</v>
       </c>
       <c r="F44" t="n">
-        <v>887.1656538841841</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G44" t="n">
-        <v>478.4373697770162</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>167.5288724047342</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>335.3625811895617</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>335.3625811895617</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L44" t="n">
-        <v>1047.9539810018</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M44" t="n">
-        <v>1771.169262630639</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N44" t="n">
-        <v>2524.350279269257</v>
+        <v>2315.806924669907</v>
       </c>
       <c r="O44" t="n">
-        <v>3167.981135686362</v>
+        <v>2959.437781087012</v>
       </c>
       <c r="P44" t="n">
-        <v>3697.137833605513</v>
+        <v>3488.594479006164</v>
       </c>
       <c r="Q44" t="n">
-        <v>4018.298840400805</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>4058.85548609037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>3923.574410884471</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>3701.36792683133</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U44" t="n">
-        <v>3444.30743509084</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V44" t="n">
-        <v>3344.462122647777</v>
+        <v>3113.751822648197</v>
       </c>
       <c r="W44" t="n">
-        <v>3344.462122647777</v>
+        <v>2935.476315897829</v>
       </c>
       <c r="X44" t="n">
-        <v>2943.818724816729</v>
+        <v>2534.832918066782</v>
       </c>
       <c r="Y44" t="n">
-        <v>2542.882051764819</v>
+        <v>2133.896245014872</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>101.9257011015672</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>81.1771097218074</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>81.1771097218074</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>81.1771097218074</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M45" t="n">
-        <v>81.1771097218074</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="N45" t="n">
-        <v>954.8352018334252</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O45" t="n">
-        <v>1186.556429037164</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P45" t="n">
-        <v>1748.262321525694</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q45" t="n">
-        <v>2098.106786209677</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>95.25965912701793</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1371.02726731936</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>1088.229119865484</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>814.3433748050059</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>535.2737103138802</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X46" t="n">
-        <v>296.9298481735636</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.1771097218074</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>228.7885022587807</v>
+        <v>537.5843517396877</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8063,19 +8063,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>558.5343765177352</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8218,7 +8218,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>426.9942432537225</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
@@ -8227,13 +8227,13 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>680.5885068018456</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8297,22 +8297,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>385.8672701533437</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>877.4504173780091</v>
+        <v>454.5193652629406</v>
       </c>
       <c r="N8" t="n">
-        <v>837.6240932108715</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8473,7 +8473,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>371.9455010937738</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>474.7925301921758</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>853.701196452193</v>
+        <v>143.9276901540081</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>233.3761574284127</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>184.781211951943</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8929,10 +8929,10 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>333.2159935059486</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>146.4674932816325</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>232.2433371714216</v>
       </c>
       <c r="M15" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,19 +9245,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>574.4763360814417</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>114.253171479086</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
         <v>877.4504173780091</v>
@@ -9482,19 +9482,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9719,28 +9719,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>713.698690859688</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>291.6261293987595</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
@@ -10199,22 +10199,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>303.2511867883843</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533856</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10664,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N36" t="n">
-        <v>557.7944283533856</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -10925,7 +10925,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11071,10 +11071,10 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>580.8710917282914</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>398.9198136730141</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11083,7 +11083,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>846.2776300172818</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
         <v>89.13638967321712</v>
@@ -11305,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>823.810710950822</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>289.2271199129839</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>291.8133246603422</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22552,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>55.11230870839546</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>163.5067364046012</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,22 +22755,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>142.0904386938122</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>303.9621034382365</v>
       </c>
       <c r="W5" t="n">
-        <v>73.09255865588568</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>194.7158398879882</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300453</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>93.84134094335735</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>288.2074716907634</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>8.893130557884263</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300453</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>82.36152368684594</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>73.09255865588568</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>92.95139099201563</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>388.086528226806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>73.09255865588568</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23703,7 +23703,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>102.9647224806628</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>63.89627435559331</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24177,22 +24177,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.200273584691132</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.6173212950581</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>241.285007033587</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.1745055375995</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.1745055375995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25207,10 +25207,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>63.73620979823008</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25569,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>82.33343719341826</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>397.6530757214227</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>152.7110727952413</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>93.31312169923871</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>247.4923197982513</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>203.4299461733196</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884319</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>494673.4368838732</v>
+        <v>655060.6942102909</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>692514.4987198825</v>
+        <v>655060.6942102909</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>692514.4987198825</v>
+        <v>655060.6942102908</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>692514.4987198826</v>
+        <v>655060.6942102909</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692514.4987198825</v>
+        <v>655060.6942102908</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753086.5355912436</v>
+        <v>753086.5355912438</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753086.5355912436</v>
+        <v>753086.5355912438</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753086.5355912435</v>
+        <v>753086.5355912438</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753086.5355912436</v>
+        <v>753086.5355912438</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753086.5355912435</v>
+        <v>753086.5355912438</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753086.5355912436</v>
+        <v>753086.5355912438</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692514.4987198825</v>
+        <v>655060.6942102909</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692514.4987198826</v>
+        <v>655060.6942102908</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171233.1127674947</v>
+        <v>226751.7787651008</v>
       </c>
       <c r="C2" t="n">
-        <v>239716.5572491902</v>
+        <v>226751.7787651008</v>
       </c>
       <c r="D2" t="n">
-        <v>239716.5572491902</v>
+        <v>226751.7787651007</v>
       </c>
       <c r="E2" t="n">
-        <v>239716.5572491901</v>
+        <v>226751.7787651008</v>
       </c>
       <c r="F2" t="n">
-        <v>239716.55724919</v>
+        <v>226751.7787651007</v>
       </c>
       <c r="G2" t="n">
         <v>260683.8007815845</v>
@@ -26334,7 +26334,7 @@
         <v>260683.8007815845</v>
       </c>
       <c r="I2" t="n">
-        <v>260683.8007815845</v>
+        <v>260683.8007815844</v>
       </c>
       <c r="J2" t="n">
         <v>260683.8007815845</v>
@@ -26352,10 +26352,10 @@
         <v>260683.8007815845</v>
       </c>
       <c r="O2" t="n">
-        <v>239716.5572491901</v>
+        <v>226751.7787651007</v>
       </c>
       <c r="P2" t="n">
-        <v>239716.5572491902</v>
+        <v>226751.7787651007</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
-        <v>159160.8707514664</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41340.88454290959</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
-        <v>126792.4227070339</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.9049324434264</v>
+        <v>622.7246651156231</v>
       </c>
       <c r="C4" t="n">
-        <v>666.8180517907564</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="D4" t="n">
-        <v>666.8180517907563</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="E4" t="n">
-        <v>666.8180517907563</v>
+        <v>622.7246651156231</v>
       </c>
       <c r="F4" t="n">
-        <v>666.8180517907564</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="G4" t="n">
+        <v>738.1279301446466</v>
+      </c>
+      <c r="H4" t="n">
         <v>738.1279301446465</v>
       </c>
-      <c r="H4" t="n">
-        <v>738.1279301446466</v>
-      </c>
       <c r="I4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="L4" t="n">
         <v>738.1279301446466</v>
@@ -26456,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>666.8180517907563</v>
+        <v>622.7246651156231</v>
       </c>
       <c r="P4" t="n">
-        <v>666.8180517907562</v>
+        <v>622.7246651156233</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>95322.20338857363</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>95322.20338857363</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>61694.60338857363</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>61694.60338857363</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26508,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>61694.60338857363</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>61694.60338857363</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69525.36713656032</v>
+        <v>-172690.4764308784</v>
       </c>
       <c r="C6" t="n">
-        <v>-15433.33494264059</v>
+        <v>136108.2651811654</v>
       </c>
       <c r="D6" t="n">
-        <v>143727.5358088258</v>
+        <v>136108.2651811653</v>
       </c>
       <c r="E6" t="n">
-        <v>177355.1358088258</v>
+        <v>169735.8651811654</v>
       </c>
       <c r="F6" t="n">
-        <v>177355.1358088256</v>
+        <v>169735.8651811652</v>
       </c>
       <c r="G6" t="n">
-        <v>147739.5780636569</v>
+        <v>121996.4856602848</v>
       </c>
       <c r="H6" t="n">
-        <v>189080.4626065665</v>
+        <v>188899.8820139175</v>
       </c>
       <c r="I6" t="n">
-        <v>189080.4626065665</v>
+        <v>188899.8820139174</v>
       </c>
       <c r="J6" t="n">
-        <v>52485.66180067151</v>
+        <v>-52191.71107381924</v>
       </c>
       <c r="K6" t="n">
-        <v>62288.0398995327</v>
+        <v>188899.8820139175</v>
       </c>
       <c r="L6" t="n">
-        <v>189080.4626065666</v>
+        <v>188899.8820139175</v>
       </c>
       <c r="M6" t="n">
-        <v>189080.4626065666</v>
+        <v>188899.8820139175</v>
       </c>
       <c r="N6" t="n">
-        <v>189080.4626065666</v>
+        <v>188899.8820139175</v>
       </c>
       <c r="O6" t="n">
-        <v>177355.1358088257</v>
+        <v>169735.8651811653</v>
       </c>
       <c r="P6" t="n">
-        <v>177355.1358088258</v>
+        <v>169735.8651811653</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26828,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>492.650301152567</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>150.8323496101924</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
-        <v>492.650301152567</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
-        <v>492.650301152567</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>150.8323496101924</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>135.5987266329976</v>
+        <v>444.3945761139046</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>500.9700927793178</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>337.8578535805054</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
@@ -34947,13 +34947,13 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>587.3987311760625</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>328.3029864149263</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>784.1601929209636</v>
+        <v>361.2291408058952</v>
       </c>
       <c r="N8" t="n">
-        <v>744.7118024542522</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35193,7 +35193,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>317.6858660909701</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>379.307132129331</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>760.7889056955737</v>
+        <v>51.01539939738873</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>177.2616336175636</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>127.029732951943</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35649,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>244.0796038327315</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>50.98209521878769</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>176.1288133605725</v>
       </c>
       <c r="M15" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>516.9120523430242</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>56.50169247908597</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
         <v>784.1601929209636</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>234.0618456603421</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>248.9915517855806</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596356</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N36" t="n">
-        <v>504.6010349596356</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37791,10 +37791,10 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>487.9588009716721</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>305.7300380472309</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>730.5204864937765</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>199.1933155138319</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>234.0618456603422</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
